--- a/Documentação/backlog.xlsx
+++ b/Documentação/backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Desktop\Mind6\Mind6\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E529A-406F-42EB-BD38-3A25B62056F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Requisito</t>
   </si>
@@ -35,9 +36,6 @@
     <t>classificação</t>
   </si>
   <si>
-    <t>tela de login (front-end)</t>
-  </si>
-  <si>
     <t>essencial</t>
   </si>
   <si>
@@ -47,15 +45,6 @@
     <t>não funcional</t>
   </si>
   <si>
-    <t>tela de cadastro (front-end)</t>
-  </si>
-  <si>
-    <t>tela de login (back-end)</t>
-  </si>
-  <si>
-    <t>tela de cadastro (beck-end)</t>
-  </si>
-  <si>
     <t>envio de mensagem via telegram</t>
   </si>
   <si>
@@ -65,15 +54,9 @@
     <t>gerar relatorio de erros</t>
   </si>
   <si>
-    <t>modelo logico do banco de dados</t>
-  </si>
-  <si>
     <t>storyboard</t>
   </si>
   <si>
-    <t>script do banco de daodos(azure)</t>
-  </si>
-  <si>
     <t>proto-persona</t>
   </si>
   <si>
@@ -98,14 +81,26 @@
     <t>backlog</t>
   </si>
   <si>
-    <t>canvas</t>
+    <t xml:space="preserve">tela de login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tela de cadastro </t>
+  </si>
+  <si>
+    <t>ux canvas</t>
+  </si>
+  <si>
+    <t>script do banco de dados(azure)</t>
+  </si>
+  <si>
+    <t>modelo logico de dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +121,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,10 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +459,7 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,65 +475,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -529,32 +541,32 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -562,94 +574,77 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="A16" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/backlog.xlsx
+++ b/Documentação/backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Desktop\Mind6\Mind6\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Mind6\Mind6\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E529A-406F-42EB-BD38-3A25B62056F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F0AD2A-2EC6-4BDA-90F4-0DFCA6131C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,82 +25,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
-  <si>
-    <t>Requisito</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>classificação</t>
-  </si>
-  <si>
-    <t>essencial</t>
-  </si>
-  <si>
-    <t>funcional</t>
-  </si>
-  <si>
-    <t>não funcional</t>
-  </si>
-  <si>
-    <t>envio de mensagem via telegram</t>
-  </si>
-  <si>
-    <t>graficos com informaços dos componentes do hardware</t>
-  </si>
-  <si>
-    <t>gerar relatorio de erros</t>
-  </si>
-  <si>
-    <t>storyboard</t>
-  </si>
-  <si>
-    <t>proto-persona</t>
-  </si>
-  <si>
-    <t>impotante</t>
-  </si>
-  <si>
-    <t>importante</t>
-  </si>
-  <si>
-    <t>site institucional</t>
-  </si>
-  <si>
-    <t>aplicação java</t>
-  </si>
-  <si>
-    <t>integrar banco de dados com a aplicação</t>
-  </si>
-  <si>
-    <t>integrar banco de dados com a plataforma web</t>
-  </si>
-  <si>
-    <t>backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tela de login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tela de cadastro </t>
-  </si>
-  <si>
-    <t>ux canvas</t>
-  </si>
-  <si>
-    <t>script do banco de dados(azure)</t>
-  </si>
-  <si>
-    <t>modelo logico de dados</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Tela de Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela de Cadastro </t>
+  </si>
+  <si>
+    <t>Envio de mensagem via Telegram</t>
+  </si>
+  <si>
+    <t>Dashboards com informações dos componentes do Hardware</t>
+  </si>
+  <si>
+    <t>Gerar relatórios de erros</t>
+  </si>
+  <si>
+    <t>Script do Banco de Dados (Azure)</t>
+  </si>
+  <si>
+    <t>Site Institucional</t>
+  </si>
+  <si>
+    <t>Captação de Dados de Hardwares</t>
+  </si>
+  <si>
+    <t>Tela de Usuário</t>
+  </si>
+  <si>
+    <t>Integrar banco de dados com a plataforma web</t>
+  </si>
+  <si>
+    <t>Integrar banco de dados com a aplicação</t>
+  </si>
+  <si>
+    <t>Modelo lógico de dados (MER)</t>
+  </si>
+  <si>
+    <t>Página Web de consulta dos dados e Dashboards</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Aplicação Java</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +106,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +126,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -158,16 +141,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,202 +509,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
